--- a/attendance-files/SIP/SIP (F) Attendance Sheet.xlsx
+++ b/attendance-files/SIP/SIP (F) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="170">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -99,6 +99,9 @@
     <t>Abhishek Yadav</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>2024PGP036</t>
   </si>
   <si>
@@ -163,9 +166,6 @@
   </si>
   <si>
     <t>Boya Ananya</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
   <si>
     <t>2024PGP118</t>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="F7" s="32">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7" s="33" t="s">
         <v>20</v>
@@ -1671,8 +1671,12 @@
       <c r="H7" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
+      <c r="I7" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K7" s="35"/>
       <c r="L7" s="36"/>
       <c r="M7" s="36"/>
@@ -1711,7 +1715,7 @@
       </c>
       <c r="F8" s="40">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8" s="33" t="s">
         <v>20</v>
@@ -1719,8 +1723,12 @@
       <c r="H8" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
+      <c r="I8" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K8" s="41"/>
       <c r="L8" s="42"/>
       <c r="M8" s="42"/>
@@ -1759,7 +1767,7 @@
       </c>
       <c r="F9" s="40">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G9" s="33" t="s">
         <v>20</v>
@@ -1767,8 +1775,12 @@
       <c r="H9" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
+      <c r="I9" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K9" s="41"/>
       <c r="L9" s="42"/>
       <c r="M9" s="42"/>
@@ -1803,11 +1815,11 @@
       </c>
       <c r="E10" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="40">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10" s="33" t="s">
         <v>20</v>
@@ -1815,8 +1827,12 @@
       <c r="H10" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
+      <c r="I10" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="43" t="s">
+        <v>27</v>
+      </c>
       <c r="K10" s="41"/>
       <c r="L10" s="42"/>
       <c r="M10" s="42"/>
@@ -1841,21 +1857,21 @@
         <v>5</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="40">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" s="33" t="s">
         <v>20</v>
@@ -1863,8 +1879,12 @@
       <c r="H11" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
+      <c r="I11" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K11" s="41"/>
       <c r="L11" s="42"/>
       <c r="M11" s="42"/>
@@ -1889,10 +1909,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>9</v>
@@ -1903,7 +1923,7 @@
       </c>
       <c r="F12" s="40">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G12" s="33" t="s">
         <v>20</v>
@@ -1911,8 +1931,12 @@
       <c r="H12" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
+      <c r="I12" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K12" s="41"/>
       <c r="L12" s="42"/>
       <c r="M12" s="42"/>
@@ -1937,10 +1961,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>9</v>
@@ -1951,7 +1975,7 @@
       </c>
       <c r="F13" s="40">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G13" s="33" t="s">
         <v>20</v>
@@ -1959,8 +1983,12 @@
       <c r="H13" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
+      <c r="I13" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K13" s="41"/>
       <c r="L13" s="42"/>
       <c r="M13" s="42"/>
@@ -1985,10 +2013,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D14" s="30" t="s">
         <v>9</v>
@@ -1999,7 +2027,7 @@
       </c>
       <c r="F14" s="40">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G14" s="33" t="s">
         <v>20</v>
@@ -2007,8 +2035,12 @@
       <c r="H14" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
+      <c r="I14" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K14" s="41"/>
       <c r="L14" s="42"/>
       <c r="M14" s="42"/>
@@ -2033,21 +2065,21 @@
         <v>9</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D15" s="30" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="40">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G15" s="33" t="s">
         <v>20</v>
@@ -2055,8 +2087,12 @@
       <c r="H15" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
+      <c r="I15" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K15" s="41"/>
       <c r="L15" s="42"/>
       <c r="M15" s="42"/>
@@ -2081,21 +2117,21 @@
         <v>10</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" s="39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D16" s="30" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="40">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G16" s="33" t="s">
         <v>20</v>
@@ -2103,8 +2139,12 @@
       <c r="H16" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
+      <c r="I16" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K16" s="41"/>
       <c r="L16" s="42"/>
       <c r="M16" s="42"/>
@@ -2129,10 +2169,10 @@
         <v>11</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D17" s="30" t="s">
         <v>9</v>
@@ -2143,7 +2183,7 @@
       </c>
       <c r="F17" s="40">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G17" s="33" t="s">
         <v>20</v>
@@ -2151,8 +2191,12 @@
       <c r="H17" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
+      <c r="I17" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K17" s="41"/>
       <c r="L17" s="42"/>
       <c r="M17" s="42"/>
@@ -2177,21 +2221,21 @@
         <v>12</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D18" s="30" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="40">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G18" s="33" t="s">
         <v>20</v>
@@ -2199,8 +2243,12 @@
       <c r="H18" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
+      <c r="I18" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K18" s="41"/>
       <c r="L18" s="42"/>
       <c r="M18" s="42"/>
@@ -2225,21 +2273,21 @@
         <v>13</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D19" s="30" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="40">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G19" s="33" t="s">
         <v>20</v>
@@ -2247,8 +2295,12 @@
       <c r="H19" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
+      <c r="I19" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K19" s="41"/>
       <c r="L19" s="42"/>
       <c r="M19" s="42"/>
@@ -2273,10 +2325,10 @@
         <v>14</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D20" s="30" t="s">
         <v>9</v>
@@ -2287,7 +2339,7 @@
       </c>
       <c r="F20" s="40">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G20" s="33" t="s">
         <v>20</v>
@@ -2295,8 +2347,12 @@
       <c r="H20" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
+      <c r="I20" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K20" s="41"/>
       <c r="L20" s="42"/>
       <c r="M20" s="42"/>
@@ -2321,10 +2377,10 @@
         <v>15</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D21" s="30" t="s">
         <v>9</v>
@@ -2335,16 +2391,20 @@
       </c>
       <c r="F21" s="40">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G21" s="43" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="H21" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
+      <c r="I21" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K21" s="41"/>
       <c r="L21" s="42"/>
       <c r="M21" s="42"/>
@@ -2383,7 +2443,7 @@
       </c>
       <c r="F22" s="40">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G22" s="33" t="s">
         <v>20</v>
@@ -2391,8 +2451,12 @@
       <c r="H22" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
+      <c r="I22" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K22" s="41"/>
       <c r="L22" s="42"/>
       <c r="M22" s="42"/>
@@ -2431,7 +2495,7 @@
       </c>
       <c r="F23" s="40">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G23" s="33" t="s">
         <v>20</v>
@@ -2439,8 +2503,12 @@
       <c r="H23" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
+      <c r="I23" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K23" s="41"/>
       <c r="L23" s="42"/>
       <c r="M23" s="42"/>
@@ -2479,16 +2547,20 @@
       </c>
       <c r="F24" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G24" s="43" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="H24" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
+        <v>27</v>
+      </c>
+      <c r="I24" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K24" s="41"/>
       <c r="L24" s="42"/>
       <c r="M24" s="42"/>
@@ -2527,16 +2599,20 @@
       </c>
       <c r="F25" s="40">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G25" s="33" t="s">
         <v>20</v>
       </c>
       <c r="H25" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
+        <v>27</v>
+      </c>
+      <c r="I25" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K25" s="41"/>
       <c r="L25" s="42"/>
       <c r="M25" s="42"/>
@@ -2575,7 +2651,7 @@
       </c>
       <c r="F26" s="40">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G26" s="33" t="s">
         <v>20</v>
@@ -2583,8 +2659,12 @@
       <c r="H26" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
+      <c r="I26" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K26" s="41"/>
       <c r="L26" s="42"/>
       <c r="M26" s="42"/>
@@ -2623,16 +2703,20 @@
       </c>
       <c r="F27" s="40">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G27" s="43" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="H27" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
+      <c r="I27" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K27" s="41"/>
       <c r="L27" s="42"/>
       <c r="M27" s="42"/>
@@ -2671,16 +2755,20 @@
       </c>
       <c r="F28" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G28" s="43" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="H28" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
+        <v>27</v>
+      </c>
+      <c r="I28" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K28" s="41"/>
       <c r="L28" s="42"/>
       <c r="M28" s="42"/>
@@ -2715,11 +2803,11 @@
       </c>
       <c r="E29" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" s="40">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G29" s="33" t="s">
         <v>20</v>
@@ -2727,8 +2815,12 @@
       <c r="H29" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
+      <c r="I29" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="J29" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K29" s="41"/>
       <c r="L29" s="42"/>
       <c r="M29" s="42"/>
@@ -2763,11 +2855,11 @@
       </c>
       <c r="E30" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="40">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G30" s="33" t="s">
         <v>20</v>
@@ -2775,8 +2867,12 @@
       <c r="H30" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
+      <c r="I30" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="J30" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K30" s="41"/>
       <c r="L30" s="42"/>
       <c r="M30" s="42"/>
@@ -2815,16 +2911,20 @@
       </c>
       <c r="F31" s="40">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G31" s="43" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="H31" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
+      <c r="I31" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K31" s="41"/>
       <c r="L31" s="42"/>
       <c r="M31" s="42"/>
@@ -2863,7 +2963,7 @@
       </c>
       <c r="F32" s="40">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G32" s="33" t="s">
         <v>20</v>
@@ -2871,8 +2971,12 @@
       <c r="H32" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
+      <c r="I32" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K32" s="41"/>
       <c r="L32" s="42"/>
       <c r="M32" s="42"/>
@@ -2907,11 +3011,11 @@
       </c>
       <c r="E33" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="40">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G33" s="33" t="s">
         <v>20</v>
@@ -2919,8 +3023,12 @@
       <c r="H33" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I33" s="41"/>
-      <c r="J33" s="41"/>
+      <c r="I33" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="J33" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K33" s="41"/>
       <c r="L33" s="42"/>
       <c r="M33" s="42"/>
@@ -2955,11 +3063,11 @@
       </c>
       <c r="E34" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" s="40">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G34" s="33" t="s">
         <v>20</v>
@@ -2967,8 +3075,12 @@
       <c r="H34" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
+      <c r="I34" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="J34" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K34" s="41"/>
       <c r="L34" s="42"/>
       <c r="M34" s="42"/>
@@ -3007,16 +3119,20 @@
       </c>
       <c r="F35" s="40">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G35" s="43" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="H35" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I35" s="41"/>
-      <c r="J35" s="41"/>
+      <c r="I35" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K35" s="41"/>
       <c r="L35" s="42"/>
       <c r="M35" s="42"/>
@@ -3055,7 +3171,7 @@
       </c>
       <c r="F36" s="40">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G36" s="33" t="s">
         <v>20</v>
@@ -3063,8 +3179,12 @@
       <c r="H36" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I36" s="41"/>
-      <c r="J36" s="41"/>
+      <c r="I36" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K36" s="41"/>
       <c r="L36" s="42"/>
       <c r="M36" s="42"/>
@@ -3103,16 +3223,20 @@
       </c>
       <c r="F37" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G37" s="43" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="H37" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="I37" s="41"/>
-      <c r="J37" s="41"/>
+        <v>27</v>
+      </c>
+      <c r="I37" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K37" s="41"/>
       <c r="L37" s="42"/>
       <c r="M37" s="42"/>
@@ -3147,11 +3271,11 @@
       </c>
       <c r="E38" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" s="40">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G38" s="33" t="s">
         <v>20</v>
@@ -3159,8 +3283,12 @@
       <c r="H38" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
+      <c r="I38" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="J38" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K38" s="41"/>
       <c r="L38" s="42"/>
       <c r="M38" s="42"/>
@@ -3199,7 +3327,7 @@
       </c>
       <c r="F39" s="40">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G39" s="33" t="s">
         <v>20</v>
@@ -3207,8 +3335,12 @@
       <c r="H39" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
+      <c r="I39" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K39" s="41"/>
       <c r="L39" s="42"/>
       <c r="M39" s="42"/>
@@ -3247,7 +3379,7 @@
       </c>
       <c r="F40" s="40">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G40" s="33" t="s">
         <v>20</v>
@@ -3255,8 +3387,12 @@
       <c r="H40" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
+      <c r="I40" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K40" s="41"/>
       <c r="L40" s="42"/>
       <c r="M40" s="42"/>
@@ -3295,7 +3431,7 @@
       </c>
       <c r="F41" s="40">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G41" s="33" t="s">
         <v>20</v>
@@ -3303,8 +3439,12 @@
       <c r="H41" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I41" s="41"/>
-      <c r="J41" s="41"/>
+      <c r="I41" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K41" s="41"/>
       <c r="L41" s="42"/>
       <c r="M41" s="42"/>
@@ -3343,16 +3483,20 @@
       </c>
       <c r="F42" s="40">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G42" s="43" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="H42" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I42" s="41"/>
-      <c r="J42" s="41"/>
+      <c r="I42" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J42" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K42" s="41"/>
       <c r="L42" s="42"/>
       <c r="M42" s="42"/>
@@ -3391,7 +3535,7 @@
       </c>
       <c r="F43" s="40">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G43" s="33" t="s">
         <v>20</v>
@@ -3399,8 +3543,12 @@
       <c r="H43" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I43" s="41"/>
-      <c r="J43" s="41"/>
+      <c r="I43" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K43" s="41"/>
       <c r="L43" s="42"/>
       <c r="M43" s="42"/>
@@ -3435,11 +3583,11 @@
       </c>
       <c r="E44" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" s="40">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G44" s="33" t="s">
         <v>20</v>
@@ -3447,8 +3595,12 @@
       <c r="H44" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I44" s="41"/>
-      <c r="J44" s="41"/>
+      <c r="I44" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="J44" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K44" s="41"/>
       <c r="L44" s="42"/>
       <c r="M44" s="42"/>
@@ -3483,11 +3635,11 @@
       </c>
       <c r="E45" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" s="40">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G45" s="33" t="s">
         <v>20</v>
@@ -3495,8 +3647,12 @@
       <c r="H45" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I45" s="41"/>
-      <c r="J45" s="41"/>
+      <c r="I45" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="J45" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K45" s="41"/>
       <c r="L45" s="42"/>
       <c r="M45" s="42"/>
@@ -3531,11 +3687,11 @@
       </c>
       <c r="E46" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" s="40">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G46" s="33" t="s">
         <v>20</v>
@@ -3543,8 +3699,12 @@
       <c r="H46" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I46" s="41"/>
-      <c r="J46" s="41"/>
+      <c r="I46" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="J46" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K46" s="41"/>
       <c r="L46" s="42"/>
       <c r="M46" s="42"/>
@@ -3583,7 +3743,7 @@
       </c>
       <c r="F47" s="40">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G47" s="33" t="s">
         <v>20</v>
@@ -3591,8 +3751,12 @@
       <c r="H47" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I47" s="41"/>
-      <c r="J47" s="41"/>
+      <c r="I47" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J47" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K47" s="41"/>
       <c r="L47" s="42"/>
       <c r="M47" s="42"/>
@@ -3631,16 +3795,20 @@
       </c>
       <c r="F48" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G48" s="43" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="H48" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="I48" s="41"/>
-      <c r="J48" s="41"/>
+        <v>27</v>
+      </c>
+      <c r="I48" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J48" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K48" s="41"/>
       <c r="L48" s="42"/>
       <c r="M48" s="42"/>
@@ -3675,11 +3843,11 @@
       </c>
       <c r="E49" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" s="40">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G49" s="33" t="s">
         <v>20</v>
@@ -3687,8 +3855,12 @@
       <c r="H49" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I49" s="41"/>
-      <c r="J49" s="41"/>
+      <c r="I49" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="J49" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K49" s="41"/>
       <c r="L49" s="42"/>
       <c r="M49" s="42"/>
@@ -3727,16 +3899,20 @@
       </c>
       <c r="F50" s="40">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G50" s="43" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="H50" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I50" s="41"/>
-      <c r="J50" s="41"/>
+      <c r="I50" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J50" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K50" s="41"/>
       <c r="L50" s="42"/>
       <c r="M50" s="42"/>
@@ -3771,11 +3947,11 @@
       </c>
       <c r="E51" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" s="40">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G51" s="33" t="s">
         <v>20</v>
@@ -3783,8 +3959,12 @@
       <c r="H51" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I51" s="41"/>
-      <c r="J51" s="41"/>
+      <c r="I51" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J51" s="43" t="s">
+        <v>27</v>
+      </c>
       <c r="K51" s="41"/>
       <c r="L51" s="42"/>
       <c r="M51" s="42"/>
@@ -3819,11 +3999,11 @@
       </c>
       <c r="E52" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" s="40">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G52" s="33" t="s">
         <v>20</v>
@@ -3831,8 +4011,12 @@
       <c r="H52" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I52" s="41"/>
-      <c r="J52" s="41"/>
+      <c r="I52" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="J52" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K52" s="41"/>
       <c r="L52" s="42"/>
       <c r="M52" s="42"/>
@@ -3867,11 +4051,11 @@
       </c>
       <c r="E53" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" s="40">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G53" s="33" t="s">
         <v>20</v>
@@ -3879,8 +4063,12 @@
       <c r="H53" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I53" s="41"/>
-      <c r="J53" s="41"/>
+      <c r="I53" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="J53" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K53" s="41"/>
       <c r="L53" s="42"/>
       <c r="M53" s="42"/>
@@ -3915,11 +4103,11 @@
       </c>
       <c r="E54" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" s="40">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G54" s="33" t="s">
         <v>20</v>
@@ -3927,8 +4115,12 @@
       <c r="H54" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I54" s="41"/>
-      <c r="J54" s="41"/>
+      <c r="I54" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="J54" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K54" s="41"/>
       <c r="L54" s="42"/>
       <c r="M54" s="42"/>
@@ -3967,16 +4159,20 @@
       </c>
       <c r="F55" s="40">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G55" s="43" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="H55" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I55" s="41"/>
-      <c r="J55" s="41"/>
+      <c r="I55" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J55" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K55" s="41"/>
       <c r="L55" s="42"/>
       <c r="M55" s="42"/>
@@ -4015,7 +4211,7 @@
       </c>
       <c r="F56" s="40">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G56" s="33" t="s">
         <v>20</v>
@@ -4023,8 +4219,12 @@
       <c r="H56" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I56" s="41"/>
-      <c r="J56" s="41"/>
+      <c r="I56" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J56" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K56" s="41"/>
       <c r="L56" s="42"/>
       <c r="M56" s="42"/>
@@ -4059,11 +4259,11 @@
       </c>
       <c r="E57" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" s="40">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G57" s="33" t="s">
         <v>20</v>
@@ -4071,8 +4271,12 @@
       <c r="H57" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I57" s="41"/>
-      <c r="J57" s="41"/>
+      <c r="I57" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="J57" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K57" s="41"/>
       <c r="L57" s="42"/>
       <c r="M57" s="42"/>
@@ -4111,7 +4315,7 @@
       </c>
       <c r="F58" s="40">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G58" s="33" t="s">
         <v>20</v>
@@ -4119,8 +4323,12 @@
       <c r="H58" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I58" s="41"/>
-      <c r="J58" s="41"/>
+      <c r="I58" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J58" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K58" s="41"/>
       <c r="L58" s="42"/>
       <c r="M58" s="42"/>
@@ -4159,7 +4367,7 @@
       </c>
       <c r="F59" s="40">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G59" s="33" t="s">
         <v>20</v>
@@ -4167,8 +4375,12 @@
       <c r="H59" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I59" s="41"/>
-      <c r="J59" s="41"/>
+      <c r="I59" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J59" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K59" s="41"/>
       <c r="L59" s="42"/>
       <c r="M59" s="42"/>
@@ -4203,11 +4415,11 @@
       </c>
       <c r="E60" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" s="40">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G60" s="33" t="s">
         <v>20</v>
@@ -4215,8 +4427,12 @@
       <c r="H60" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I60" s="41"/>
-      <c r="J60" s="41"/>
+      <c r="I60" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="J60" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K60" s="41"/>
       <c r="L60" s="42"/>
       <c r="M60" s="42"/>
@@ -4255,7 +4471,7 @@
       </c>
       <c r="F61" s="40">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G61" s="33" t="s">
         <v>20</v>
@@ -4263,8 +4479,12 @@
       <c r="H61" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I61" s="41"/>
-      <c r="J61" s="41"/>
+      <c r="I61" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J61" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K61" s="41"/>
       <c r="L61" s="42"/>
       <c r="M61" s="42"/>
@@ -4303,16 +4523,20 @@
       </c>
       <c r="F62" s="40">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G62" s="43" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="H62" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I62" s="41"/>
-      <c r="J62" s="41"/>
+      <c r="I62" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J62" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K62" s="41"/>
       <c r="L62" s="42"/>
       <c r="M62" s="42"/>
@@ -4351,7 +4575,7 @@
       </c>
       <c r="F63" s="40">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G63" s="33" t="s">
         <v>20</v>
@@ -4359,8 +4583,12 @@
       <c r="H63" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I63" s="41"/>
-      <c r="J63" s="41"/>
+      <c r="I63" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J63" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K63" s="41"/>
       <c r="L63" s="42"/>
       <c r="M63" s="42"/>
@@ -4395,11 +4623,11 @@
       </c>
       <c r="E64" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" s="40">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G64" s="33" t="s">
         <v>20</v>
@@ -4407,8 +4635,12 @@
       <c r="H64" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I64" s="41"/>
-      <c r="J64" s="41"/>
+      <c r="I64" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J64" s="43" t="s">
+        <v>27</v>
+      </c>
       <c r="K64" s="41"/>
       <c r="L64" s="42"/>
       <c r="M64" s="42"/>
@@ -4447,7 +4679,7 @@
       </c>
       <c r="F65" s="40">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G65" s="33" t="s">
         <v>20</v>
@@ -4455,8 +4687,12 @@
       <c r="H65" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I65" s="41"/>
-      <c r="J65" s="41"/>
+      <c r="I65" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J65" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K65" s="41"/>
       <c r="L65" s="42"/>
       <c r="M65" s="42"/>
@@ -4495,16 +4731,20 @@
       </c>
       <c r="F66" s="40">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G66" s="43" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="H66" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I66" s="41"/>
-      <c r="J66" s="41"/>
+      <c r="I66" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J66" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K66" s="41"/>
       <c r="L66" s="42"/>
       <c r="M66" s="42"/>
@@ -4543,16 +4783,20 @@
       </c>
       <c r="F67" s="40">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G67" s="33" t="s">
         <v>20</v>
       </c>
       <c r="H67" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="I67" s="41"/>
-      <c r="J67" s="41"/>
+        <v>27</v>
+      </c>
+      <c r="I67" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J67" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K67" s="41"/>
       <c r="L67" s="42"/>
       <c r="M67" s="42"/>
@@ -4591,7 +4835,7 @@
       </c>
       <c r="F68" s="40">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G68" s="33" t="s">
         <v>20</v>
@@ -4599,8 +4843,12 @@
       <c r="H68" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I68" s="41"/>
-      <c r="J68" s="41"/>
+      <c r="I68" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J68" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K68" s="41"/>
       <c r="L68" s="42"/>
       <c r="M68" s="42"/>
@@ -4639,7 +4887,7 @@
       </c>
       <c r="F69" s="40">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G69" s="33" t="s">
         <v>20</v>
@@ -4647,8 +4895,12 @@
       <c r="H69" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I69" s="41"/>
-      <c r="J69" s="41"/>
+      <c r="I69" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J69" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K69" s="41"/>
       <c r="L69" s="42"/>
       <c r="M69" s="42"/>
@@ -4687,7 +4939,7 @@
       </c>
       <c r="F70" s="40">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G70" s="33" t="s">
         <v>20</v>
@@ -4695,8 +4947,12 @@
       <c r="H70" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I70" s="41"/>
-      <c r="J70" s="41"/>
+      <c r="I70" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J70" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K70" s="41"/>
       <c r="L70" s="42"/>
       <c r="M70" s="42"/>
@@ -4735,7 +4991,7 @@
       </c>
       <c r="F71" s="40">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G71" s="33" t="s">
         <v>20</v>
@@ -4743,8 +4999,12 @@
       <c r="H71" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I71" s="41"/>
-      <c r="J71" s="41"/>
+      <c r="I71" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J71" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K71" s="41"/>
       <c r="L71" s="42"/>
       <c r="M71" s="42"/>
@@ -4783,7 +5043,7 @@
       </c>
       <c r="F72" s="40">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G72" s="33" t="s">
         <v>20</v>
@@ -4791,8 +5051,12 @@
       <c r="H72" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I72" s="41"/>
-      <c r="J72" s="41"/>
+      <c r="I72" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J72" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K72" s="41"/>
       <c r="L72" s="42"/>
       <c r="M72" s="42"/>
@@ -4827,11 +5091,11 @@
       </c>
       <c r="E73" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" s="40">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G73" s="33" t="s">
         <v>20</v>
@@ -4839,8 +5103,12 @@
       <c r="H73" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I73" s="41"/>
-      <c r="J73" s="41"/>
+      <c r="I73" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="J73" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K73" s="41"/>
       <c r="L73" s="42"/>
       <c r="M73" s="42"/>
@@ -4879,16 +5147,20 @@
       </c>
       <c r="F74" s="40">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G74" s="43" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="H74" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I74" s="41"/>
-      <c r="J74" s="41"/>
+      <c r="I74" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J74" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K74" s="41"/>
       <c r="L74" s="42"/>
       <c r="M74" s="42"/>
@@ -4923,11 +5195,11 @@
       </c>
       <c r="E75" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" s="40">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G75" s="33" t="s">
         <v>20</v>
@@ -4935,8 +5207,12 @@
       <c r="H75" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I75" s="41"/>
-      <c r="J75" s="41"/>
+      <c r="I75" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="J75" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K75" s="41"/>
       <c r="L75" s="42"/>
       <c r="M75" s="42"/>
@@ -4975,7 +5251,7 @@
       </c>
       <c r="F76" s="40">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G76" s="33" t="s">
         <v>20</v>
@@ -4983,8 +5259,12 @@
       <c r="H76" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I76" s="41"/>
-      <c r="J76" s="41"/>
+      <c r="I76" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J76" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K76" s="41"/>
       <c r="L76" s="42"/>
       <c r="M76" s="42"/>
@@ -5023,7 +5303,7 @@
       </c>
       <c r="F77" s="40">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G77" s="33" t="s">
         <v>20</v>
@@ -5031,8 +5311,12 @@
       <c r="H77" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I77" s="41"/>
-      <c r="J77" s="41"/>
+      <c r="I77" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J77" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K77" s="41"/>
       <c r="L77" s="42"/>
       <c r="M77" s="42"/>
@@ -5071,16 +5355,20 @@
       </c>
       <c r="F78" s="40">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G78" s="33" t="s">
         <v>20</v>
       </c>
       <c r="H78" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="I78" s="41"/>
-      <c r="J78" s="41"/>
+        <v>27</v>
+      </c>
+      <c r="I78" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J78" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K78" s="41"/>
       <c r="L78" s="42"/>
       <c r="M78" s="42"/>
@@ -5119,16 +5407,20 @@
       </c>
       <c r="F79" s="40">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G79" s="43" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="H79" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I79" s="41"/>
-      <c r="J79" s="41"/>
+      <c r="I79" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J79" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K79" s="41"/>
       <c r="L79" s="42"/>
       <c r="M79" s="42"/>
@@ -5163,11 +5455,11 @@
       </c>
       <c r="E80" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80" s="40">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G80" s="33" t="s">
         <v>20</v>
@@ -5175,8 +5467,12 @@
       <c r="H80" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I80" s="41"/>
-      <c r="J80" s="41"/>
+      <c r="I80" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="J80" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K80" s="41"/>
       <c r="L80" s="42"/>
       <c r="M80" s="42"/>
@@ -5215,7 +5511,7 @@
       </c>
       <c r="F81" s="40">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G81" s="33" t="s">
         <v>20</v>
@@ -5223,8 +5519,12 @@
       <c r="H81" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I81" s="41"/>
-      <c r="J81" s="41"/>
+      <c r="I81" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J81" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="K81" s="41"/>
       <c r="L81" s="42"/>
       <c r="M81" s="42"/>
